--- a/NBA Playoffs - Machine Learning/NBAPlayoffs/22-23.xlsx
+++ b/NBA Playoffs - Machine Learning/NBAPlayoffs/22-23.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmacrides/Python and R/GitHub/NBA Playoffs - Machine Learning/NBAPlayoffs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55465182-A842-0F4C-A5C7-EE53F4B76327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE06C5-7E62-FA4A-A132-2096D232A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15260" xr2:uid="{101395A4-353D-5B42-8A3C-F95549C64BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCD69B0-2364-D948-9E53-1FF3057F6E02}">
   <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M14" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:AC31"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="2">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="Z4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="2">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="Z9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="2">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="2">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="Z12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="2">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="Z14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="2">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="Z15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="2">
         <v>0</v>
